--- a/PolynomialFitting/FittedPolynomials.xlsx
+++ b/PolynomialFitting/FittedPolynomials.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\CSC310\PolynomialFitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE7C3E-A615-4621-A2EF-D109599A7E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE66025-4C20-4072-BACC-3C8CC963639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{962F1C10-BA30-45AD-A7B6-9C607B73E683}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{962F1C10-BA30-45AD-A7B6-9C607B73E683}"/>
   </bookViews>
   <sheets>
     <sheet name="degree1" sheetId="2" r:id="rId1"/>
-    <sheet name="degree2 (2)" sheetId="8" r:id="rId2"/>
+    <sheet name="degree2" sheetId="8" r:id="rId2"/>
     <sheet name="degree3" sheetId="7" r:id="rId3"/>
     <sheet name="degree4" sheetId="6" r:id="rId4"/>
     <sheet name="degree5" sheetId="5" r:id="rId5"/>
@@ -28,7 +28,7 @@
     <definedName name="ExternalData_4" localSheetId="4" hidden="1">degree5!$A$1:$C$202</definedName>
     <definedName name="ExternalData_5" localSheetId="3" hidden="1">degree4!$A$1:$C$202</definedName>
     <definedName name="ExternalData_6" localSheetId="2" hidden="1">degree3!$A$1:$C$202</definedName>
-    <definedName name="ExternalData_7" localSheetId="1" hidden="1">'degree2 (2)'!$A$1:$C$202</definedName>
+    <definedName name="ExternalData_7" localSheetId="1" hidden="1">degree2!$A$1:$C$202</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3059,7 +3059,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'degree2 (2)'!$B$1</c:f>
+              <c:f>degree2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3097,11 +3097,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'degree2 (2)'!$A:$A</c15:sqref>
+                    <c15:sqref>degree2!$A:$A</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'degree2 (2)'!$A$2:$A$1048576</c:f>
+              <c:f>degree2!$A$2:$A$1048576</c:f>
               <c:strCache>
                 <c:ptCount val="201"/>
                 <c:pt idx="0">
@@ -3715,11 +3715,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'degree2 (2)'!$B$2:$B$202</c15:sqref>
+                    <c15:sqref>degree2!$B$2:$B$202</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'degree2 (2)'!$B$3:$B$202</c:f>
+              <c:f>degree2!$B$3:$B$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -4338,7 +4338,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'degree2 (2)'!$C$1</c:f>
+              <c:f>degree2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4376,11 +4376,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'degree2 (2)'!$A:$A</c15:sqref>
+                    <c15:sqref>degree2!$A:$A</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'degree2 (2)'!$A$2:$A$1048576</c:f>
+              <c:f>degree2!$A$2:$A$1048576</c:f>
               <c:strCache>
                 <c:ptCount val="201"/>
                 <c:pt idx="0">
@@ -4994,11 +4994,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'degree2 (2)'!$C$2:$C$202</c15:sqref>
+                    <c15:sqref>degree2!$C$2:$C$202</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'degree2 (2)'!$C$3:$C$202</c:f>
+              <c:f>degree2!$C$3:$C$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -24550,7 +24550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99FFC60-45B5-4F72-9C20-C204E5591B8A}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -26796,7 +26796,7 @@
   <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29040,7 +29040,7 @@
   <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31284,7 +31284,7 @@
   <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38015,7 +38015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B50856-CE21-44A5-A425-F5E20383F6F7}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
